--- a/data/processed/state_overviews/ohio_overview.xlsx
+++ b/data/processed/state_overviews/ohio_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>4025</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4,025</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Adams County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>2</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Allen County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>42</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Ashland County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>18</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Ashtabula County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>30</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Athens County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>38</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Auglaize County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>15</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Belmont County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>11</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Brown County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>7</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Butler County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>61</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Carroll County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>5</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Champaign County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>12</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Clark County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>42</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Clermont County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>24</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Clinton County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>10</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Columbiana County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>30</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Coshocton County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>12</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Crawford County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>12</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Cuyahoga County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>550</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Darke County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>18</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Defiance County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>13</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Delaware County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>50</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Erie County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>25</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Fairfield County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>33</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Fayette County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>9</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Franklin County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>726</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Fulton County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>12</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Gallia County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>14</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Geauga County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>25</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Greene County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>39</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Guernsey County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>17</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Hamilton County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>383</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Hancock County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>30</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Hardin County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>12</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Harrison County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>2</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Henry County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>13</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Highland County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>13</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Hocking County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>7</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Holmes County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>10</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Huron County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>11</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Jackson County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>15</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Jefferson County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>29</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Knox County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>27</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Lake County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>37</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Lawrence County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>6</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>Licking County</t>
         </is>
       </c>
-      <c r="B46">
-        <v>45</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,8 +1906,10 @@
           <t>Logan County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>14</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,8 +1938,10 @@
           <t>Lorain County</t>
         </is>
       </c>
-      <c r="B48">
-        <v>58</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,8 +1970,10 @@
           <t>Lucas County</t>
         </is>
       </c>
-      <c r="B49">
-        <v>188</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1904,8 +2002,10 @@
           <t>Madison County</t>
         </is>
       </c>
-      <c r="B50">
-        <v>9</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1934,8 +2034,10 @@
           <t>Mahoning County</t>
         </is>
       </c>
-      <c r="B51">
-        <v>71</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1964,8 +2066,10 @@
           <t>Marion County</t>
         </is>
       </c>
-      <c r="B52">
-        <v>68</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1994,8 +2098,10 @@
           <t>Medina County</t>
         </is>
       </c>
-      <c r="B53">
-        <v>29</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2024,8 +2130,10 @@
           <t>Meigs County</t>
         </is>
       </c>
-      <c r="B54">
-        <v>2</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2054,8 +2162,10 @@
           <t>Mercer County</t>
         </is>
       </c>
-      <c r="B55">
-        <v>13</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2084,8 +2194,10 @@
           <t>Miami County</t>
         </is>
       </c>
-      <c r="B56">
-        <v>30</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2114,8 +2226,10 @@
           <t>Monroe County</t>
         </is>
       </c>
-      <c r="B57">
-        <v>5</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2144,8 +2258,10 @@
           <t>Montgomery County</t>
         </is>
       </c>
-      <c r="B58">
-        <v>171</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2174,8 +2290,10 @@
           <t>Morgan County</t>
         </is>
       </c>
-      <c r="B59">
-        <v>5</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2204,8 +2322,10 @@
           <t>Morrow County</t>
         </is>
       </c>
-      <c r="B60">
-        <v>4</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2234,8 +2354,10 @@
           <t>Muskingum County</t>
         </is>
       </c>
-      <c r="B61">
-        <v>25</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2264,8 +2386,10 @@
           <t>Noble County</t>
         </is>
       </c>
-      <c r="B62">
-        <v>5</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2294,8 +2418,10 @@
           <t>Ottawa County</t>
         </is>
       </c>
-      <c r="B63">
-        <v>31</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2324,8 +2450,10 @@
           <t>Paulding County</t>
         </is>
       </c>
-      <c r="B64">
-        <v>3</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2354,8 +2482,10 @@
           <t>Perry County</t>
         </is>
       </c>
-      <c r="B65">
-        <v>7</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2384,8 +2514,10 @@
           <t>Pickaway County</t>
         </is>
       </c>
-      <c r="B66">
-        <v>10</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2414,8 +2546,10 @@
           <t>Pike County</t>
         </is>
       </c>
-      <c r="B67">
-        <v>7</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2444,8 +2578,10 @@
           <t>Portage County</t>
         </is>
       </c>
-      <c r="B68">
-        <v>30</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2474,8 +2610,10 @@
           <t>Preble County</t>
         </is>
       </c>
-      <c r="B69">
-        <v>7</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2504,8 +2642,10 @@
           <t>Putnam County</t>
         </is>
       </c>
-      <c r="B70">
-        <v>10</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2534,8 +2674,10 @@
           <t>Richland County</t>
         </is>
       </c>
-      <c r="B71">
-        <v>46</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2564,8 +2706,10 @@
           <t>Ross County</t>
         </is>
       </c>
-      <c r="B72">
-        <v>24</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2594,8 +2738,10 @@
           <t>Sandusky County</t>
         </is>
       </c>
-      <c r="B73">
-        <v>16</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2624,8 +2770,10 @@
           <t>Scioto County</t>
         </is>
       </c>
-      <c r="B74">
-        <v>26</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2654,8 +2802,10 @@
           <t>Seneca County</t>
         </is>
       </c>
-      <c r="B75">
-        <v>25</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2684,8 +2834,10 @@
           <t>Shelby County</t>
         </is>
       </c>
-      <c r="B76">
-        <v>14</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2714,8 +2866,10 @@
           <t>Stark County</t>
         </is>
       </c>
-      <c r="B77">
-        <v>119</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2744,8 +2898,10 @@
           <t>Summit County</t>
         </is>
       </c>
-      <c r="B78">
-        <v>192</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2774,8 +2930,10 @@
           <t>Trumbull County</t>
         </is>
       </c>
-      <c r="B79">
-        <v>30</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2804,8 +2962,10 @@
           <t>Tuscarawas County</t>
         </is>
       </c>
-      <c r="B80">
-        <v>20</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2834,8 +2994,10 @@
           <t>Union County</t>
         </is>
       </c>
-      <c r="B81">
-        <v>14</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2864,8 +3026,10 @@
           <t>Van Wert County</t>
         </is>
       </c>
-      <c r="B82">
-        <v>18</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2894,8 +3058,10 @@
           <t>Vinton County</t>
         </is>
       </c>
-      <c r="B83">
-        <v>3</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2924,8 +3090,10 @@
           <t>Warren County</t>
         </is>
       </c>
-      <c r="B84">
-        <v>34</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2954,8 +3122,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B85">
-        <v>20</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2984,8 +3154,10 @@
           <t>Wayne County</t>
         </is>
       </c>
-      <c r="B86">
-        <v>36</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3014,8 +3186,10 @@
           <t>Williams County</t>
         </is>
       </c>
-      <c r="B87">
-        <v>10</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3044,8 +3218,10 @@
           <t>Wood County</t>
         </is>
       </c>
-      <c r="B88">
-        <v>34</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3074,27 +3250,61 @@
           <t>Wyandot County</t>
         </is>
       </c>
-      <c r="B89">
-        <v>0</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>4,025</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>$7,999,510,499</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>7.17%</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>-17.50%</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>71.45%</t>
         </is>
       </c>
     </row>
@@ -3149,8 +3359,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>372</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3179,8 +3391,10 @@
           <t>Congressional District 10</t>
         </is>
       </c>
-      <c r="B3">
-        <v>250</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3209,8 +3423,10 @@
           <t>Congressional District 11</t>
         </is>
       </c>
-      <c r="B4">
-        <v>463</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3239,8 +3455,10 @@
           <t>Congressional District 12</t>
         </is>
       </c>
-      <c r="B5">
-        <v>220</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3269,8 +3487,10 @@
           <t>Congressional District 13</t>
         </is>
       </c>
-      <c r="B6">
-        <v>288</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3299,8 +3519,10 @@
           <t>Congressional District 14</t>
         </is>
       </c>
-      <c r="B7">
-        <v>152</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3329,8 +3551,10 @@
           <t>Congressional District 15</t>
         </is>
       </c>
-      <c r="B8">
-        <v>222</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3359,8 +3583,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B9">
-        <v>170</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3389,8 +3615,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B10">
-        <v>565</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3419,8 +3647,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B11">
-        <v>295</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3449,8 +3679,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B12">
-        <v>218</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3479,8 +3711,10 @@
           <t>Congressional District 6</t>
         </is>
       </c>
-      <c r="B13">
-        <v>220</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3509,8 +3743,10 @@
           <t>Congressional District 7</t>
         </is>
       </c>
-      <c r="B14">
-        <v>153</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -3539,8 +3775,10 @@
           <t>Congressional District 8</t>
         </is>
       </c>
-      <c r="B15">
-        <v>133</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3569,8 +3807,10 @@
           <t>Congressional District 9</t>
         </is>
       </c>
-      <c r="B16">
-        <v>304</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -3599,8 +3839,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B17">
-        <v>4025</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4,025</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -3674,8 +3916,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>1280</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1,280</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3704,8 +3948,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>1057</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1,057</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3734,8 +3980,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>644</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3764,8 +4012,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>313</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3794,8 +4044,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>541</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3824,8 +4076,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>190</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3854,8 +4108,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>4025</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4,025</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3929,8 +4185,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>341</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3959,8 +4217,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>458</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3989,8 +4249,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>126</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -4019,8 +4281,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>365</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4049,8 +4313,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>41</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -4079,8 +4345,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>1332</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1,332</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4109,8 +4377,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>16</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -4139,8 +4409,10 @@
           <t>Mutual/Membership Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -4169,8 +4441,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B10">
-        <v>341</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -4199,8 +4473,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B11">
-        <v>114</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -4229,8 +4505,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B12">
-        <v>837</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>837</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -4259,8 +4537,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B13">
-        <v>53</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -4289,8 +4569,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B14">
-        <v>4025</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4,025</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/ohio_overview.xlsx
+++ b/data/processed/state_overviews/ohio_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -431,918 +431,918 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Adams County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$3,810,544</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.19%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.68%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Allen County</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>4,025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$102,929,232</t>
+          <t>$7,999,510,499</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.07%</t>
+          <t>7.17%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-22.19%</t>
+          <t>-17.50%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>76.19%</t>
+          <t>71.45%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ashland County</t>
+          <t>Adams County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$26,406,787</t>
+          <t>$3,810,544</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.63%</t>
+          <t>9.19%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>3.68%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ashtabula County</t>
+          <t>Allen County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$29,987,903</t>
+          <t>$102,929,232</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.23%</t>
+          <t>6.07%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-23.72%</t>
+          <t>-22.19%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>76.19%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Athens County</t>
+          <t>Ashland County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$59,421,182</t>
+          <t>$26,406,787</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.41%</t>
+          <t>10.63%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-10.19%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>63.16%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Auglaize County</t>
+          <t>Ashtabula County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$1,966,304</t>
+          <t>$29,987,903</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13.42%</t>
+          <t>9.23%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.06%</t>
+          <t>-23.72%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>26.67%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Belmont County</t>
+          <t>Athens County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$11,645,925</t>
+          <t>$59,421,182</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.03%</t>
+          <t>13.41%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-20.61%</t>
+          <t>-10.19%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>63.16%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brown County</t>
+          <t>Auglaize County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$16,737,045</t>
+          <t>$1,966,304</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.22%</t>
+          <t>13.42%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-20.66%</t>
+          <t>5.06%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>26.67%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Butler County</t>
+          <t>Belmont County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$57,040,365</t>
+          <t>$11,645,925</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.21%</t>
+          <t>5.03%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-10.04%</t>
+          <t>-20.61%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>67.21%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Carroll County</t>
+          <t>Brown County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$825,393</t>
+          <t>$16,737,045</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19.69%</t>
+          <t>6.22%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-6.41%</t>
+          <t>-20.66%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Champaign County</t>
+          <t>Butler County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$2,510,186</t>
+          <t>$57,040,365</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.95%</t>
+          <t>9.21%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-8.21%</t>
+          <t>-10.04%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>67.21%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Clark County</t>
+          <t>Carroll County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$55,191,613</t>
+          <t>$825,393</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.33%</t>
+          <t>19.69%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-23.98%</t>
+          <t>-6.41%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>76.19%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Clermont County</t>
+          <t>Champaign County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$46,556,513</t>
+          <t>$2,510,186</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>20.53%</t>
+          <t>5.95%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.55%</t>
+          <t>-8.21%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>41.67%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Clinton County</t>
+          <t>Clark County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$9,010,265</t>
+          <t>$55,191,613</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7.82%</t>
+          <t>5.33%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-23.11%</t>
+          <t>-23.98%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>90.00%</t>
+          <t>76.19%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Columbiana County</t>
+          <t>Clermont County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$38,522,454</t>
+          <t>$46,556,513</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13.25%</t>
+          <t>20.53%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-22.05%</t>
+          <t>3.55%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>63.33%</t>
+          <t>41.67%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Coshocton County</t>
+          <t>Clinton County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$22,226,913</t>
+          <t>$9,010,265</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>7.82%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-8.86%</t>
+          <t>-23.11%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>90.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Crawford County</t>
+          <t>Columbiana County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$5,651,744</t>
+          <t>$38,522,454</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11.67%</t>
+          <t>13.25%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-11.99%</t>
+          <t>-22.05%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>63.33%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cuyahoga County</t>
+          <t>Coshocton County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$2,116,557,753</t>
+          <t>$22,226,913</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9.40%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-16.70%</t>
+          <t>-8.86%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Darke County</t>
+          <t>Crawford County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$13,118,091</t>
+          <t>$5,651,744</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11.52%</t>
+          <t>11.67%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-5.58%</t>
+          <t>-11.99%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>61.11%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Defiance County</t>
+          <t>Cuyahoga County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>550</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$18,963,695</t>
+          <t>$2,116,557,753</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.01%</t>
+          <t>9.40%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-24.18%</t>
+          <t>-16.70%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>92.31%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Delaware County</t>
+          <t>Darke County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$62,171,606</t>
+          <t>$13,118,091</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10.20%</t>
+          <t>11.52%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-5.76%</t>
+          <t>-5.58%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>61.11%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Erie County</t>
+          <t>Defiance County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$32,328,735</t>
+          <t>$18,963,695</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13.08%</t>
+          <t>3.01%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-12.20%</t>
+          <t>-24.18%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>92.31%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fairfield County</t>
+          <t>Delaware County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$22,531,402</t>
+          <t>$62,171,606</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12.54%</t>
+          <t>10.20%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-13.70%</t>
+          <t>-5.76%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fayette County</t>
+          <t>Erie County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$9,265,884</t>
+          <t>$32,328,735</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-1.84%</t>
+          <t>13.08%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-11.72%</t>
+          <t>-12.20%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Franklin County</t>
+          <t>Fairfield County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$1,480,509,081</t>
+          <t>$22,531,402</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.11%</t>
+          <t>12.54%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-54.79%</t>
+          <t>-13.70%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>83.61%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fulton County</t>
+          <t>Fayette County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$7,391,188</t>
+          <t>$9,265,884</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.53%</t>
+          <t>-1.84%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-8.64%</t>
+          <t>-11.72%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Gallia County</t>
+          <t>Franklin County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>726</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$23,498,475</t>
+          <t>$1,480,509,081</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7.78%</t>
+          <t>3.11%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-8.31%</t>
+          <t>-54.79%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>83.61%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Geauga County</t>
+          <t>Fulton County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$8,463,792</t>
+          <t>$7,391,188</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>1.53%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1352,942 +1352,942 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Greene County</t>
+          <t>Gallia County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$51,772,388</t>
+          <t>$23,498,475</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8.17%</t>
+          <t>7.78%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-17.07%</t>
+          <t>-8.31%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>74.36%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Guernsey County</t>
+          <t>Geauga County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$57,738,164</t>
+          <t>$8,463,792</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4.19%</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-44.31%</t>
+          <t>-8.64%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>94.12%</t>
+          <t>72.00%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hamilton County</t>
+          <t>Greene County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$978,485,245</t>
+          <t>$51,772,388</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>9.01%</t>
+          <t>8.17%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-8.79%</t>
+          <t>-17.07%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>62.92%</t>
+          <t>74.36%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hancock County</t>
+          <t>Guernsey County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$34,666,659</t>
+          <t>$57,738,164</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11.20%</t>
+          <t>4.19%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-10.91%</t>
+          <t>-44.31%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>94.12%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hardin County</t>
+          <t>Hamilton County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>383</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$9,430,518</t>
+          <t>$978,485,245</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>13.37%</t>
+          <t>9.01%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-23.85%</t>
+          <t>-8.79%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>62.92%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Harrison County</t>
+          <t>Hancock County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$281,271</t>
+          <t>$34,666,659</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-29.27%</t>
+          <t>11.20%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-42.17%</t>
+          <t>-10.91%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Henry County</t>
+          <t>Hardin County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$11,204,943</t>
+          <t>$9,430,518</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7.75%</t>
+          <t>13.37%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-53.72%</t>
+          <t>-23.85%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Highland County</t>
+          <t>Harrison County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$16,035,756</t>
+          <t>$281,271</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6.45%</t>
+          <t>-29.27%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-12.71%</t>
+          <t>-42.17%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>53.85%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hocking County</t>
+          <t>Henry County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$4,759,439</t>
+          <t>$11,204,943</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>7.75%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-5.81%</t>
+          <t>-53.72%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>76.92%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Holmes County</t>
+          <t>Highland County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$7,078,622</t>
+          <t>$16,035,756</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>15.76%</t>
+          <t>6.45%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>8.55%</t>
+          <t>-12.71%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>30.00%</t>
+          <t>53.85%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Huron County</t>
+          <t>Hocking County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$2,423,402</t>
+          <t>$4,759,439</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10.23%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-11.61%</t>
+          <t>-5.81%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>54.55%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Jackson County</t>
+          <t>Holmes County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$68,481,526</t>
+          <t>$7,078,622</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>3.85%</t>
+          <t>15.76%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-27.90%</t>
+          <t>8.55%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Huron County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$19,944,338</t>
+          <t>$2,423,402</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6.15%</t>
+          <t>10.23%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-6.36%</t>
+          <t>-11.61%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>62.07%</t>
+          <t>54.55%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Knox County</t>
+          <t>Jackson County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$27,358,734</t>
+          <t>$68,481,526</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>15.36%</t>
+          <t>3.85%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-8.16%</t>
+          <t>-27.90%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>59.26%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Lake County</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$45,905,212</t>
+          <t>$19,944,338</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>14.44%</t>
+          <t>6.15%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-14.97%</t>
+          <t>-6.36%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>64.86%</t>
+          <t>62.07%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Lawrence County</t>
+          <t>Knox County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$27,384,847</t>
+          <t>$27,358,734</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>7.39%</t>
+          <t>15.36%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-36.29%</t>
+          <t>-8.16%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>59.26%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Licking County</t>
+          <t>Lake County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$37,912,994</t>
+          <t>$45,905,212</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8.05%</t>
+          <t>14.44%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-18.36%</t>
+          <t>-14.97%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>64.86%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Logan County</t>
+          <t>Lawrence County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$7,897,174</t>
+          <t>$27,384,847</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>11.30%</t>
+          <t>7.39%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-11.48%</t>
+          <t>-36.29%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Lorain County</t>
+          <t>Licking County</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$72,396,952</t>
+          <t>$37,912,994</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>11.56%</t>
+          <t>8.05%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-4.95%</t>
+          <t>-18.36%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>65.52%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Lucas County</t>
+          <t>Logan County</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$509,032,781</t>
+          <t>$7,897,174</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4.12%</t>
+          <t>11.30%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-24.78%</t>
+          <t>-11.48%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>76.60%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Madison County</t>
+          <t>Lorain County</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>58</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$8,903,363</t>
+          <t>$72,396,952</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-0.88%</t>
+          <t>11.56%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-55.62%</t>
+          <t>-4.95%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>65.52%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Mahoning County</t>
+          <t>Lucas County</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$144,992,848</t>
+          <t>$509,032,781</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>7.57%</t>
+          <t>4.12%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-29.89%</t>
+          <t>-24.78%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>76.06%</t>
+          <t>76.60%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Marion County</t>
+          <t>Madison County</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$43,825,782</t>
+          <t>$8,903,363</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1.86%</t>
+          <t>-0.88%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-58.37%</t>
+          <t>-55.62%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>91.18%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Medina County</t>
+          <t>Mahoning County</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>71</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$4,242,662</t>
+          <t>$144,992,848</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>7.77%</t>
+          <t>7.57%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-5.53%</t>
+          <t>-29.89%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>55.17%</t>
+          <t>76.06%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Meigs County</t>
+          <t>Marion County</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$204,324</t>
+          <t>$43,825,782</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16.72%</t>
+          <t>1.86%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>7.54%</t>
+          <t>-58.37%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>91.18%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Mercer County</t>
+          <t>Medina County</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$5,179,648</t>
+          <t>$4,242,662</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>16.51%</t>
+          <t>7.77%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-13.60%</t>
+          <t>-5.53%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>69.23%</t>
+          <t>55.17%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Miami County</t>
+          <t>Meigs County</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$25,580,593</t>
+          <t>$204,324</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5.55%</t>
+          <t>16.72%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-10.85%</t>
+          <t>7.54%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Monroe County</t>
+          <t>Mercer County</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$74,166</t>
+          <t>$5,179,648</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2.24%</t>
+          <t>16.51%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.35%</t>
+          <t>-13.60%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>40.00%</t>
+          <t>69.23%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Montgomery County</t>
+          <t>Miami County</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$410,829,459</t>
+          <t>$25,580,593</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>8.68%</t>
+          <t>5.55%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-13.61%</t>
+          <t>-10.85%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>65.50%</t>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Morgan County</t>
+          <t>Monroe County</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2297,253 +2297,253 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$10,478,671</t>
+          <t>$74,166</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5.47%</t>
+          <t>2.24%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-25.61%</t>
+          <t>1.35%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Morrow County</t>
+          <t>Montgomery County</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>171</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$845,368</t>
+          <t>$410,829,459</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>9.19%</t>
+          <t>8.68%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.31%</t>
+          <t>-13.61%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>65.50%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Muskingum County</t>
+          <t>Morgan County</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$45,266,965</t>
+          <t>$10,478,671</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>7.35%</t>
+          <t>5.47%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-14.43%</t>
+          <t>-25.61%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>76.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Noble County</t>
+          <t>Morrow County</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$7,690,422</t>
+          <t>$845,368</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>5.04%</t>
+          <t>9.19%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-3.62%</t>
+          <t>1.31%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Ottawa County</t>
+          <t>Muskingum County</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$17,610,590</t>
+          <t>$45,266,965</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>13.26%</t>
+          <t>7.35%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-14.14%</t>
+          <t>-14.43%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>70.97%</t>
+          <t>76.00%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Paulding County</t>
+          <t>Noble County</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$731,250</t>
+          <t>$7,690,422</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3.13%</t>
+          <t>5.04%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-26.88%</t>
+          <t>-3.62%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Perry County</t>
+          <t>Ottawa County</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$2,644,665</t>
+          <t>$17,610,590</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>19.88%</t>
+          <t>13.26%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4.87%</t>
+          <t>-14.14%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>42.86%</t>
+          <t>70.97%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Pickaway County</t>
+          <t>Paulding County</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$13,500,895</t>
+          <t>$731,250</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>6.52%</t>
+          <t>3.13%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-23.96%</t>
+          <t>-26.88%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Pike County</t>
+          <t>Perry County</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2553,61 +2553,61 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$16,596,411</t>
+          <t>$2,644,665</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>8.77%</t>
+          <t>19.88%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-20.36%</t>
+          <t>4.87%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>42.86%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Portage County</t>
+          <t>Pickaway County</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$76,473,940</t>
+          <t>$13,500,895</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>6.52%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-14.87%</t>
+          <t>-23.96%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Preble County</t>
+          <t>Pike County</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2617,694 +2617,694 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$2,252,572</t>
+          <t>$16,596,411</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12.63%</t>
+          <t>8.77%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-16.45%</t>
+          <t>-20.36%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Putnam County</t>
+          <t>Portage County</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$3,634,719</t>
+          <t>$76,473,940</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5.45%</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-10.29%</t>
+          <t>-14.87%</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Richland County</t>
+          <t>Preble County</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$57,148,547</t>
+          <t>$2,252,572</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>5.13%</t>
+          <t>12.63%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-27.60%</t>
+          <t>-16.45%</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>78.26%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>Putnam County</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$48,610,329</t>
+          <t>$3,634,719</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>8.60%</t>
+          <t>5.45%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>-10.29%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>45.83%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sandusky County</t>
+          <t>Richland County</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$17,055,912</t>
+          <t>$57,148,547</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>13.91%</t>
+          <t>5.13%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2.18%</t>
+          <t>-27.60%</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>78.26%</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Scioto County</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$29,060,972</t>
+          <t>$48,610,329</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>11.75%</t>
+          <t>8.60%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>-4.85%</t>
+          <t>0.34%</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>57.69%</t>
+          <t>45.83%</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Seneca County</t>
+          <t>Sandusky County</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$28,952,385</t>
+          <t>$17,055,912</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>11.21%</t>
+          <t>13.91%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>-10.84%</t>
+          <t>2.18%</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>72.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Shelby County</t>
+          <t>Scioto County</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$7,798,425</t>
+          <t>$29,060,972</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>15.04%</t>
+          <t>11.75%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-13.49%</t>
+          <t>-4.85%</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>64.29%</t>
+          <t>57.69%</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Stark County</t>
+          <t>Seneca County</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$130,800,262</t>
+          <t>$28,952,385</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>7.17%</t>
+          <t>11.21%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>-9.78%</t>
+          <t>-10.84%</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>67.23%</t>
+          <t>72.00%</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Summit County</t>
+          <t>Shelby County</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$384,343,482</t>
+          <t>$7,798,425</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5.99%</t>
+          <t>15.04%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>-30.88%</t>
+          <t>-13.49%</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>77.60%</t>
+          <t>64.29%</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Trumbull County</t>
+          <t>Stark County</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>119</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$28,851,176</t>
+          <t>$130,800,262</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>7.17%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>-9.89%</t>
+          <t>-9.78%</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>63.33%</t>
+          <t>67.23%</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Tuscarawas County</t>
+          <t>Summit County</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>192</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$21,859,271</t>
+          <t>$384,343,482</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>14.59%</t>
+          <t>5.99%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>-5.01%</t>
+          <t>-30.88%</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>77.60%</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Union County</t>
+          <t>Trumbull County</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$12,112,944</t>
+          <t>$28,851,176</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6.27%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>-9.56%</t>
+          <t>-9.89%</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>64.29%</t>
+          <t>63.33%</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Van Wert County</t>
+          <t>Tuscarawas County</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$7,375,942</t>
+          <t>$21,859,271</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>16.06%</t>
+          <t>14.59%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>-4.91%</t>
+          <t>-5.01%</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Vinton County</t>
+          <t>Union County</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$180,732</t>
+          <t>$12,112,944</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-1.74%</t>
+          <t>6.27%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>-56.22%</t>
+          <t>-9.56%</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>64.29%</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Warren County</t>
+          <t>Van Wert County</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$25,986,517</t>
+          <t>$7,375,942</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>7.92%</t>
+          <t>16.06%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>-0.09%</t>
+          <t>-4.91%</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>52.94%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>Vinton County</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$22,544,372</t>
+          <t>$180,732</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>16.79%</t>
+          <t>-1.74%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>-9.46%</t>
+          <t>-56.22%</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Wayne County</t>
+          <t>Warren County</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$35,208,415</t>
+          <t>$25,986,517</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>10.82%</t>
+          <t>7.92%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>-1.79%</t>
+          <t>-0.09%</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>58.33%</t>
+          <t>52.94%</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Williams County</t>
+          <t>Washington County</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$2,997,927</t>
+          <t>$22,544,372</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>16.92%</t>
+          <t>16.79%</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>-13.77%</t>
+          <t>-9.46%</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Wood County</t>
+          <t>Wayne County</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$21,632,541</t>
+          <t>$35,208,415</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.48%</t>
+          <t>10.82%</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>-15.59%</t>
+          <t>-1.79%</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>73.53%</t>
+          <t>58.33%</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Wyandot County</t>
+          <t>Williams County</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$2,997,927</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>16.92%</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-13.77%</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Wood County</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>4,025</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$7,999,510,499</t>
+          <t>$21,632,541</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>7.17%</t>
+          <t>0.48%</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>-17.50%</t>
+          <t>-15.59%</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>71.45%</t>
+          <t>73.53%</t>
         </is>
       </c>
     </row>
@@ -3315,7 +3315,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3324,544 +3324,576 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$975,066,029</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.89%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-9.95%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>61.83%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 10</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>4,025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$517,350,921</t>
+          <t>$7,999,510,499</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.62%</t>
+          <t>7.17%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-14.86%</t>
+          <t>-17.50%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>68.80%</t>
+          <t>71.45%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 11</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>372</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$1,643,515,289</t>
+          <t>$975,066,029</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.03%</t>
+          <t>8.89%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-16.73%</t>
+          <t>-9.95%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>72.79%</t>
+          <t>61.83%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 12</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>170</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$292,813,524</t>
+          <t>$324,428,073</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.17%</t>
+          <t>8.74%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-14.08%</t>
+          <t>-9.68%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>68.18%</t>
+          <t>61.76%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 13</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>565</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$489,406,560</t>
+          <t>$1,089,842,017</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.11%</t>
+          <t>1.97%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-22.24%</t>
+          <t>-58.79%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>74.31%</t>
+          <t>85.31%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional District 14</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>295</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$189,682,023</t>
+          <t>$327,226,336</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.36%</t>
+          <t>5.61%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-14.93%</t>
+          <t>-21.97%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>67.11%</t>
+          <t>70.85%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Congressional District 15</t>
+          <t>5th Congressional district</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$442,503,043</t>
+          <t>$186,287,640</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.97%</t>
+          <t>10.92%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-19.77%</t>
+          <t>-10.80%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>75.68%</t>
+          <t>68.35%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>6th Congressional district</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$324,428,073</t>
+          <t>$294,113,159</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.74%</t>
+          <t>8.80%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-9.68%</t>
+          <t>-10.62%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>61.76%</t>
+          <t>67.73%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>7th Congressional district</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$1,089,842,017</t>
+          <t>$512,510,769</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.97%</t>
+          <t>10.94%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-58.79%</t>
+          <t>-9.27%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>85.31%</t>
+          <t>65.36%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>8th Congressional district</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$327,226,336</t>
+          <t>$101,821,743</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.61%</t>
+          <t>10.03%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-21.97%</t>
+          <t>-7.57%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>70.85%</t>
+          <t>65.41%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>9th Congressional district</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>304</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$186,287,640</t>
+          <t>$612,943,373</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.92%</t>
+          <t>5.61%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-10.80%</t>
+          <t>-18.69%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>68.35%</t>
+          <t>73.03%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Congressional District 6</t>
+          <t>10th Congressional district</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$294,113,159</t>
+          <t>$517,350,921</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.80%</t>
+          <t>7.62%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-10.62%</t>
+          <t>-14.86%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>67.73%</t>
+          <t>68.80%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Congressional District 7</t>
+          <t>11th Congressional district</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>463</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$512,510,769</t>
+          <t>$1,643,515,289</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.94%</t>
+          <t>9.03%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-9.27%</t>
+          <t>-16.73%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>65.36%</t>
+          <t>72.79%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Congressional District 8</t>
+          <t>12th Congressional district</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$101,821,743</t>
+          <t>$292,813,524</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10.03%</t>
+          <t>9.17%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-7.57%</t>
+          <t>-14.08%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>65.41%</t>
+          <t>68.18%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Congressional District 9</t>
+          <t>13th Congressional district</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>288</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$612,943,373</t>
+          <t>$489,406,560</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.61%</t>
+          <t>6.11%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-18.69%</t>
+          <t>-22.24%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>73.03%</t>
+          <t>74.31%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>14th Congressional district</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4,025</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$7,999,510,499</t>
+          <t>$189,682,023</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7.17%</t>
+          <t>10.36%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-17.50%</t>
+          <t>-14.93%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>71.45%</t>
+          <t>67.11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>15th Congressional district</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$442,503,043</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.97%</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-19.77%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>75.68%</t>
         </is>
       </c>
     </row>
@@ -3886,34 +3918,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3945,128 +3977,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1,057</t>
+          <t>541</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,137,667,516</t>
+          <t>$5,573,992,452</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.34%</t>
+          <t>5.94%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-20.14%</t>
+          <t>-6.86%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>73.70%</t>
+          <t>65.62%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>1,057</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$173,794,557</t>
+          <t>$1,137,667,516</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.30%</t>
+          <t>8.34%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-16.71%</t>
+          <t>-20.14%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>68.79%</t>
+          <t>73.70%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>644</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$941,038,729</t>
+          <t>$173,794,557</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.61%</t>
+          <t>8.30%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-20.60%</t>
+          <t>-16.71%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>77.96%</t>
+          <t>68.79%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>313</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$5,573,992,452</t>
+          <t>$941,038,729</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.94%</t>
+          <t>5.61%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-6.86%</t>
+          <t>-20.60%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>65.62%</t>
+          <t>77.96%</t>
         </is>
       </c>
     </row>
@@ -4155,34 +4187,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4214,7 +4246,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4246,7 +4278,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4278,7 +4310,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4342,7 +4374,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4374,7 +4406,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4406,160 +4438,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mutual/Membership Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>341</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$4,048,815</t>
+          <t>$619,148,951</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16.63%</t>
+          <t>10.24%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-82.76%</t>
+          <t>-19.03%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>72.14%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>114</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$619,148,951</t>
+          <t>$70,150,922</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.24%</t>
+          <t>4.99%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-19.03%</t>
+          <t>-19.66%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>72.14%</t>
+          <t>70.18%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Mutual/membership benefit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$70,150,922</t>
+          <t>$4,048,815</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.99%</t>
+          <t>16.63%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-19.66%</t>
+          <t>-82.76%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>70.18%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,769,148,054</t>
+          <t>$637,060,967</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.61%</t>
+          <t>4.63%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-16.21%</t>
+          <t>-3.97%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>69.06%</t>
+          <t>66.04%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>837</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$637,060,967</t>
+          <t>$1,769,148,054</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.63%</t>
+          <t>6.61%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-3.97%</t>
+          <t>-16.21%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>66.04%</t>
+          <t>69.06%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/ohio_overview.xlsx
+++ b/data/processed/state_overviews/ohio_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>71.45%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>4,025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$7,999,510,499</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>7.17%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-17.50%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>71.45%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>71.45%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>4,025</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$7,999,510,499</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.17%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-17.50%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>71.45%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$3,810,544</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>9.19%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.68%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>76.19%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>42</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$102,929,232</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>6.07%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-22.19%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>76.19%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$26,406,787</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>10.63%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.03%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$29,987,903</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>9.23%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-23.72%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>63.16%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>38</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$59,421,182</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>13.41%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-10.19%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>63.16%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>26.67%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$1,966,304</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>13.42%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>5.06%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>26.67%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>72.73%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$11,645,925</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>5.03%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-20.61%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>72.73%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$16,737,045</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>6.22%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-20.66%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>67.21%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>61</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$57,040,365</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>9.21%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-10.04%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>67.21%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$825,393</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>19.69%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-6.41%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$2,510,186</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>5.95%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-8.21%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>76.19%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>42</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$55,191,613</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>5.33%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-23.98%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>76.19%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>41.67%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$46,556,513</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>20.53%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>3.55%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>41.67%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>90.00%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$9,010,265</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>7.82%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-23.11%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>90.00%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>63.33%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$38,522,454</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>13.25%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-22.05%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>63.33%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$22,226,913</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>8.25%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-8.86%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>58.33%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$5,651,744</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>11.67%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-11.99%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>58.33%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>72.73%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>550</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$2,116,557,753</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>9.40%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-16.70%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>72.73%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>61.11%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$13,118,091</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>11.52%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-5.58%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>61.11%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>92.31%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$18,963,695</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>3.01%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-24.18%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>92.31%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>50</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$62,171,606</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>10.20%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-5.76%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$32,328,735</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>13.08%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-12.20%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$22,531,402</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>12.54%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-13.70%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$9,265,884</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>-1.84%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-11.72%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>83.61%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>726</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$1,480,509,081</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>3.11%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-54.79%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>83.61%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$7,391,188</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1.53%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-8.64%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$23,498,475</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>7.78%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-8.31%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>72.00%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$8,463,792</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>3.65%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-8.64%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>72.00%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>74.36%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>39</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$51,772,388</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>8.17%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-17.07%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>74.36%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>94.12%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$57,738,164</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>4.19%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-44.31%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>94.12%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>62.92%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>383</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$978,485,245</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>9.01%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-8.79%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>62.92%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$34,666,659</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>11.20%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-10.91%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$9,430,518</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>13.37%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-23.85%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$281,271</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>-29.27%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-42.17%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>76.92%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$11,204,943</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>7.75%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-53.72%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>76.92%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>53.85%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$16,035,756</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>6.45%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-12.71%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>53.85%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$4,759,439</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>7.50%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-5.81%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$7,078,622</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>15.76%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>8.55%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>54.55%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$2,423,402</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>10.23%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-11.61%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>54.55%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$68,481,526</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>3.85%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-27.90%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>62.07%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$19,944,338</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>6.15%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-6.36%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>62.07%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>59.26%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$27,358,734</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>15.36%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>-8.16%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>59.26%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>64.86%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$45,905,212</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>14.44%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-14.97%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>64.86%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$27,384,847</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>7.39%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-36.29%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$37,912,994</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>8.05%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>-18.36%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$7,897,174</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>11.30%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>-11.48%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>65.52%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>58</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$72,396,952</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>11.56%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>-4.95%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>65.52%</t>
         </is>
       </c>
     </row>
@@ -2036,27 +2036,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>76.60%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>188</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>$509,032,781</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>4.12%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>-24.78%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>76.60%</t>
         </is>
       </c>
     </row>
@@ -2068,27 +2068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>$8,903,363</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>-0.88%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>-55.62%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>76.06%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>71</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>$144,992,848</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>7.57%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>-29.89%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>76.06%</t>
         </is>
       </c>
     </row>
@@ -2132,27 +2132,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>91.18%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>68</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>$43,825,782</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1.86%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>-58.37%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>91.18%</t>
         </is>
       </c>
     </row>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>55.17%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>$4,242,662</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>7.77%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>-5.53%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>55.17%</t>
         </is>
       </c>
     </row>
@@ -2196,27 +2196,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>$204,324</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>16.72%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>7.54%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2228,27 +2228,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>69.23%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>$5,179,648</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>16.51%</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>-13.60%</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>69.23%</t>
         </is>
       </c>
     </row>
@@ -2260,27 +2260,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>$25,580,593</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>5.55%</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>-10.85%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -2292,27 +2292,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>$74,166</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2.24%</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1.35%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -2324,27 +2324,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>65.50%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>171</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>$410,829,459</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>8.68%</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>-13.61%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>65.50%</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>$10,478,671</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>5.47%</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>-25.61%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2388,27 +2388,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>$845,368</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>9.19%</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1.31%</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2420,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>76.00%</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>$45,266,965</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>7.35%</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>-14.43%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>76.00%</t>
         </is>
       </c>
     </row>
@@ -2452,27 +2452,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>$7,690,422</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>5.04%</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>-3.62%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2484,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>70.97%</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>$17,610,590</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>13.26%</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>-14.14%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>70.97%</t>
         </is>
       </c>
     </row>
@@ -2516,27 +2516,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>$731,250</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>3.13%</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>-26.88%</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2548,27 +2548,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>42.86%</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>$2,644,665</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>19.88%</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>4.87%</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>42.86%</t>
         </is>
       </c>
     </row>
@@ -2580,27 +2580,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>$13,500,895</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>6.52%</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>-23.96%</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -2612,27 +2612,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>$16,596,411</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>8.77%</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>-20.36%</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -2644,27 +2644,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>$76,473,940</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>11.21%</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>-14.87%</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -2676,27 +2676,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>$2,252,572</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>12.63%</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>-16.45%</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -2708,27 +2708,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>$3,634,719</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>5.45%</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>-10.29%</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -2740,27 +2740,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>78.26%</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>$57,148,547</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>5.13%</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>-27.60%</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>78.26%</t>
         </is>
       </c>
     </row>
@@ -2772,27 +2772,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>45.83%</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>$48,610,329</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>8.60%</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>0.34%</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>45.83%</t>
         </is>
       </c>
     </row>
@@ -2804,27 +2804,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>$17,055,912</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>13.91%</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>2.18%</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2836,27 +2836,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>57.69%</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>$29,060,972</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>11.75%</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>-4.85%</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>57.69%</t>
         </is>
       </c>
     </row>
@@ -2868,27 +2868,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>72.00%</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>$28,952,385</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>11.21%</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>-10.84%</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>72.00%</t>
         </is>
       </c>
     </row>
@@ -2900,27 +2900,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>64.29%</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>$7,798,425</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>15.04%</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>-13.49%</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>64.29%</t>
         </is>
       </c>
     </row>
@@ -2932,27 +2932,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>67.23%</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>119</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>$130,800,262</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>7.17%</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>-9.78%</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>67.23%</t>
         </is>
       </c>
     </row>
@@ -2964,27 +2964,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>77.60%</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>$384,343,482</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>5.99%</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>-30.88%</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>77.60%</t>
         </is>
       </c>
     </row>
@@ -2996,27 +2996,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>63.33%</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>$28,851,176</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>9.98%</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>-9.89%</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>63.33%</t>
         </is>
       </c>
     </row>
@@ -3028,27 +3028,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>$21,859,271</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>14.59%</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>-5.01%</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -3060,27 +3060,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>64.29%</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>$12,112,944</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>6.27%</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>-9.56%</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>64.29%</t>
         </is>
       </c>
     </row>
@@ -3092,27 +3092,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>$7,375,942</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>16.06%</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>-4.91%</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -3124,27 +3124,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>$180,732</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>-1.74%</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>-56.22%</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3156,27 +3156,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>52.94%</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>$25,986,517</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>7.92%</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>-0.09%</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>52.94%</t>
         </is>
       </c>
     </row>
@@ -3188,27 +3188,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>$22,544,372</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>16.79%</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>-9.46%</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -3220,27 +3220,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>58.33%</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>$35,208,415</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>10.82%</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>-1.79%</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>58.33%</t>
         </is>
       </c>
     </row>
@@ -3252,27 +3252,27 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>$2,997,927</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>16.92%</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>-13.77%</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -3284,27 +3284,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>73.53%</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>$21,632,541</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>0.48%</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>-15.59%</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>73.53%</t>
         </is>
       </c>
     </row>
@@ -3329,27 +3329,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -3361,27 +3361,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -3393,507 +3393,507 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>71.45%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>4,025</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$7,999,510,499</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.17%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-17.50%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>71.45%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>61.83%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>372</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$975,066,029</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>8.89%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-9.95%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>61.83%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>68.80%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$324,428,073</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.74%</t>
+          <t>$517,350,921</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-9.68%</t>
+          <t>7.62%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>61.76%</t>
+          <t>-14.86%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>72.79%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,089,842,017</t>
+          <t>463</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.97%</t>
+          <t>$1,643,515,289</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-58.79%</t>
+          <t>9.03%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>85.31%</t>
+          <t>-16.73%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>68.18%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$327,226,336</t>
+          <t>220</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.61%</t>
+          <t>$292,813,524</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-21.97%</t>
+          <t>9.17%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>70.85%</t>
+          <t>-14.08%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>74.31%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$186,287,640</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.92%</t>
+          <t>$489,406,560</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-10.80%</t>
+          <t>6.11%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>68.35%</t>
+          <t>-22.24%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>67.11%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$294,113,159</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.80%</t>
+          <t>$189,682,023</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-10.62%</t>
+          <t>10.36%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>67.73%</t>
+          <t>-14.93%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7th Congressional district</t>
+          <t>Congressional District 15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>75.68%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$512,510,769</t>
+          <t>222</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.94%</t>
+          <t>$442,503,043</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-9.27%</t>
+          <t>5.97%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>65.36%</t>
+          <t>-19.77%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8th Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>61.76%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$101,821,743</t>
+          <t>170</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.03%</t>
+          <t>$324,428,073</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-7.57%</t>
+          <t>8.74%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>65.41%</t>
+          <t>-9.68%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9th Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>85.31%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$612,943,373</t>
+          <t>565</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.61%</t>
+          <t>$1,089,842,017</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-18.69%</t>
+          <t>1.97%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>73.03%</t>
+          <t>-58.79%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>70.85%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$517,350,921</t>
+          <t>295</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.62%</t>
+          <t>$327,226,336</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-14.86%</t>
+          <t>5.61%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>68.80%</t>
+          <t>-21.97%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>68.35%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$1,643,515,289</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.03%</t>
+          <t>$186,287,640</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-16.73%</t>
+          <t>10.92%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>72.79%</t>
+          <t>-10.80%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12th Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>67.73%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>220</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>$292,813,524</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9.17%</t>
+          <t>$294,113,159</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-14.08%</t>
+          <t>8.80%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>68.18%</t>
+          <t>-10.62%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13th Congressional district</t>
+          <t>Congressional District 7</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>65.36%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$489,406,560</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6.11%</t>
+          <t>$512,510,769</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-22.24%</t>
+          <t>10.94%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>74.31%</t>
+          <t>-9.27%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14th Congressional district</t>
+          <t>Congressional District 8</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>65.41%</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$189,682,023</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10.36%</t>
+          <t>$101,821,743</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-14.93%</t>
+          <t>10.03%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>67.11%</t>
+          <t>-7.57%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15th Congressional district</t>
+          <t>Congressional District 9</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>73.03%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$442,503,043</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.97%</t>
+          <t>$612,943,373</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-19.77%</t>
+          <t>5.61%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>75.68%</t>
+          <t>-18.69%</t>
         </is>
       </c>
     </row>
@@ -3918,187 +3918,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>73.75%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>1,280</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$160,620,354</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>6.16%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-25.58%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>73.75%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>73.70%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$5,573,992,452</t>
+          <t>1,057</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.94%</t>
+          <t>$1,137,667,516</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-6.86%</t>
+          <t>8.34%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>65.62%</t>
+          <t>-20.14%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1,057</t>
+          <t>68.79%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$1,137,667,516</t>
+          <t>644</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.34%</t>
+          <t>$173,794,557</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-20.14%</t>
+          <t>8.30%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>73.70%</t>
+          <t>-16.71%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>77.96%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$173,794,557</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.30%</t>
+          <t>$941,038,729</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-16.71%</t>
+          <t>5.61%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>68.79%</t>
+          <t>-20.60%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>65.62%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$941,038,729</t>
+          <t>541</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.61%</t>
+          <t>$5,573,992,452</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-20.60%</t>
+          <t>5.94%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>77.96%</t>
+          <t>-6.86%</t>
         </is>
       </c>
     </row>
@@ -4110,27 +4110,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>58.42%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>190</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$12,396,891</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>25.79%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-9.12%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>58.42%</t>
         </is>
       </c>
     </row>
@@ -4142,27 +4142,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>71.45%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>4,025</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$7,999,510,499</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>7.17%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-17.50%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>71.45%</t>
         </is>
       </c>
     </row>
@@ -4187,155 +4187,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>63.05%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>341</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$263,650,974</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>15.23%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-7.87%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>63.05%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>78.60%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>458</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,048,218,003</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.48%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-39.09%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>78.60%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>48.41%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>126</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$351,476,653</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>18.17%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.50%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>48.41%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>75.07%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>365</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$1,032,476,665</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>7.10%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-17.26%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>75.07%</t>
         </is>
       </c>
     </row>
@@ -4347,251 +4347,251 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>48.78%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$580,246,423</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>6.17%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.22%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>48.78%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>74.92%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>1,332</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$1,621,546,800</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>5.15%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-25.29%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>74.92%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$2,337,272</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>13.62%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-3.59%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Mutual/Membership Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$619,148,951</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.24%</t>
+          <t>$4,048,815</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-19.03%</t>
+          <t>16.63%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>72.14%</t>
+          <t>-82.76%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>72.14%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$70,150,922</t>
+          <t>341</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.99%</t>
+          <t>$619,148,951</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-19.66%</t>
+          <t>10.24%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>70.18%</t>
+          <t>-19.03%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mutual/membership benefit</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>70.18%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$4,048,815</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16.63%</t>
+          <t>$70,150,922</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-82.76%</t>
+          <t>4.99%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>-19.66%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>69.06%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$637,060,967</t>
+          <t>837</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.63%</t>
+          <t>$1,769,148,054</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-3.97%</t>
+          <t>6.61%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>66.04%</t>
+          <t>-16.21%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>66.04%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$1,769,148,054</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.61%</t>
+          <t>$637,060,967</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-16.21%</t>
+          <t>4.63%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>69.06%</t>
+          <t>-3.97%</t>
         </is>
       </c>
     </row>
@@ -4603,27 +4603,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>71.45%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>4,025</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$7,999,510,499</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>7.17%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-17.50%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>71.45%</t>
         </is>
       </c>
     </row>
